--- a/DATA/product_data.xlsx
+++ b/DATA/product_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC588A-B4F2-4789-BF52-145E1359084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AA6241-F525-4EC0-91E9-B1C95469EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1320" windowWidth="14160" windowHeight="14880" xr2:uid="{375F728C-E094-421E-852F-FBC069F0CE00}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14160" windowHeight="14880" xr2:uid="{375F728C-E094-421E-852F-FBC069F0CE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Products</t>
   </si>
@@ -102,15 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,22 +421,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E5525-19ED-4040-93C5-B0AA61EC8ADA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,75 +443,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12500</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
+      <c r="C4" s="2">
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3">
         <v>3000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2">
         <v>18000</v>
       </c>
     </row>

--- a/DATA/product_data.xlsx
+++ b/DATA/product_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AA6241-F525-4EC0-91E9-B1C95469EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{437F0B61-2323-4B19-ADE9-9186C148ACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14160" windowHeight="14880" xr2:uid="{375F728C-E094-421E-852F-FBC069F0CE00}"/>
+    <workbookView xWindow="14775" yWindow="1695" windowWidth="14160" windowHeight="14880" xr2:uid="{1339C10C-CC74-4B5E-95F7-38104A020A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,50 +33,44 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Selling Price per Pack (in RM)</t>
+  </si>
+  <si>
     <t>Production Limit</t>
   </si>
   <si>
+    <t>Maximum Profit (in RM)</t>
+  </si>
+  <si>
     <t>Cheese Puffs</t>
   </si>
   <si>
+    <t>Light and crunchy puffed snacks with a delicious cheese flavor</t>
+  </si>
+  <si>
     <t>Potato Chips</t>
   </si>
   <si>
+    <t>Thinly sliced and crispy potato chips, perfect for snacking</t>
+  </si>
+  <si>
     <t>Pretzels</t>
   </si>
   <si>
     <t>Crunchy and twisted pretzels, great for satisfying snack cravings</t>
-  </si>
-  <si>
-    <t>Light and crunchy puffed snacks with a delicious cheese flavor</t>
-  </si>
-  <si>
-    <t>Thinly sliced and crispy potato chips, perfect for snacking</t>
-  </si>
-  <si>
-    <t>Selling Price per Pack (in RM)</t>
-  </si>
-  <si>
-    <t>Maximum Profit (in RM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF343541"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,14 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,86 +408,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E5525-19ED-4040-93C5-B0AA61EC8ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AAA202-17DF-497B-B1ED-AE6DFEA8920C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2500</v>
+      </c>
+      <c r="E2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1800</v>
+      </c>
+      <c r="E3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1800</v>
-      </c>
-      <c r="E3" s="2">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>3000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>18000</v>
       </c>
     </row>

--- a/DATA/product_data.xlsx
+++ b/DATA/product_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{437F0B61-2323-4B19-ADE9-9186C148ACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743620E4-DF4E-46B3-BED3-9FE341D2A65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14775" yWindow="1695" windowWidth="14160" windowHeight="14880" xr2:uid="{1339C10C-CC74-4B5E-95F7-38104A020A1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1339C10C-CC74-4B5E-95F7-38104A020A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,8 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,76 +415,83 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2500</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>12500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1800</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>12600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>18000</v>
       </c>
     </row>

--- a/DATA/product_data.xlsx
+++ b/DATA/product_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743620E4-DF4E-46B3-BED3-9FE341D2A65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FAF9E2-31B2-441F-84BB-CDD0364751E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1339C10C-CC74-4B5E-95F7-38104A020A1D}"/>
+    <workbookView xWindow="12120" yWindow="1500" windowWidth="14160" windowHeight="14880" xr2:uid="{1339C10C-CC74-4B5E-95F7-38104A020A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -455,13 +455,14 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="E2" s="1">
-        <v>12500</v>
+        <f>D2*C2</f>
+        <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -472,13 +473,14 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>1800</v>
+        <v>350</v>
       </c>
       <c r="E3" s="1">
-        <v>12600</v>
+        <f t="shared" ref="E3:E4" si="0">D3*C3</f>
+        <v>2450</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -489,10 +491,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1">
-        <v>18000</v>
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
